--- a/medicine/Enfance/Tuer_un_tigre/Tuer_un_tigre.xlsx
+++ b/medicine/Enfance/Tuer_un_tigre/Tuer_un_tigre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tuer un tigre (To Kill a Tiger) est un film canadien réalisé par Nisha Pahuja (en), sorti en 2022.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film suit le combat pour la justice d'une famille de Jharkhand en Inde dont la fille adolescente a été victime de viol collectif[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film suit le combat pour la justice d'une famille de Jharkhand en Inde dont la fille adolescente a été victime de viol collectif,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Tuer un tigre
 Réalisation : Nisha Pahuja (en)
@@ -584,12 +600,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choisi comme meilleur film canadien et nommé au Canada's Top Ten (en) suite de sa première mondiale au Festival international du film de Toronto 2022[3],[4]. 
-Gagnant de trois prix, dont celui du meilleur long métrage documentaire (en) aux 11e Prix Écrans canadiens[5]. 
-La Guilde canadienne des réalisateurs décerne son DGC Allan King Award for Best Documentary Film (en)[6]. 
-Le film a été nommé à l'Oscar du meilleur film documentaire[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choisi comme meilleur film canadien et nommé au Canada's Top Ten (en) suite de sa première mondiale au Festival international du film de Toronto 2022,. 
+Gagnant de trois prix, dont celui du meilleur long métrage documentaire (en) aux 11e Prix Écrans canadiens. 
+La Guilde canadienne des réalisateurs décerne son DGC Allan King Award for Best Documentary Film (en). 
+Le film a été nommé à l'Oscar du meilleur film documentaire.
 </t>
         </is>
       </c>
